--- a/Bitrix24 - 2/CRM, Lead generation.xlsx
+++ b/Bitrix24 - 2/CRM, Lead generation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Service name</t>
   </si>
@@ -64,39 +64,18 @@
     <t>Roistat — Cross-cutting business analytics system</t>
   </si>
   <si>
-    <t>Roistat.com</t>
-  </si>
-  <si>
-    <t>Marketing Automation</t>
-  </si>
-  <si>
-    <t>Nicgrade Marketing Automation</t>
-  </si>
-  <si>
     <t>uCalc — Calculators &amp; Lead Forms</t>
   </si>
   <si>
-    <t>UCOZ Ltd</t>
-  </si>
-  <si>
     <t>Chatra.io integration — online chat for site</t>
   </si>
   <si>
-    <t>B24.io</t>
-  </si>
-  <si>
     <t>Advertising platform</t>
   </si>
   <si>
     <t>Cheapmedia, LLC</t>
   </si>
   <si>
-    <t>PieSync 2-way Contact Sync</t>
-  </si>
-  <si>
-    <t>PieSync</t>
-  </si>
-  <si>
     <t>LeadsBridge</t>
   </si>
   <si>
@@ -110,6 +89,60 @@
   </si>
   <si>
     <t>SigParser</t>
+  </si>
+  <si>
+    <t>CRM
+Tasks
+Employees</t>
+  </si>
+  <si>
+    <t>http://help.roistat.com/display/Eng/Start</t>
+  </si>
+  <si>
+    <t>no information</t>
+  </si>
+  <si>
+    <t>https://roistat.com/privacy</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>LLC «B-Analytics»</t>
+  </si>
+  <si>
+    <t>Data transmission</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1m5jLyx578KCqHA4MWdng5qHLeIRjU9zM?usp=sharing</t>
+  </si>
+  <si>
+    <t>Full name; email address; phone number; IP address; payment details; type of operating system of the User’s device, sections of the Site visited by the User; location; name of legal entity; TIN; phisycal address of organization; Secret API key; timezone; project settings (name, currency, deal profit and etc)</t>
+  </si>
+  <si>
+    <t>https://ucalc.pro/en/help/integration/bitrix24</t>
+  </si>
+  <si>
+    <t>https://ucalc.pro/en/privacy</t>
+  </si>
+  <si>
+    <t>uKit Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name; email address; the type of operating system, device model, browser type, system settings, including the information about the language that the User’s system uses, location (country / region), time zone of the User’s device, mobile operator; IP address; information from the User's social media account; </t>
+  </si>
+  <si>
+    <t>CRM
+Employees</t>
+  </si>
+  <si>
+    <t>Organization of working process</t>
+  </si>
+  <si>
+    <t>Name; email address; phone number; geodata; entry page on your website; customer’s IP, bowser and operation system; chat assistent’s notes</t>
+  </si>
+  <si>
+    <t>Roger Wilco LLC</t>
   </si>
 </sst>
 </file>
@@ -218,7 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -243,12 +276,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -567,7 +599,7 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +616,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -615,51 +648,85 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
+    <row r="3" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="85.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -667,13 +734,13 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -684,14 +751,12 @@
       <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -701,13 +766,13 @@
       <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
+      <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -718,12 +783,14 @@
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="9"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -734,37 +801,11 @@
     </row>
     <row r="10" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:11" ht="65.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:11" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -776,11 +817,9 @@
     </row>
     <row r="14" spans="1:11" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
@@ -834,7 +873,15 @@
       <c r="D32" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="I3" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3"/>
+    <hyperlink ref="H4" r:id="rId4"/>
+    <hyperlink ref="I4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Bitrix24 - 2/CRM, Lead generation.xlsx
+++ b/Bitrix24 - 2/CRM, Lead generation.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
   <si>
     <t>Service name</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>SigParser Email Signature Capture</t>
-  </si>
-  <si>
-    <t>SigParser</t>
   </si>
   <si>
     <t>CRM
@@ -129,9 +126,6 @@
     <t>uKit Group</t>
   </si>
   <si>
-    <t xml:space="preserve">Name; email address; the type of operating system, device model, browser type, system settings, including the information about the language that the User’s system uses, location (country / region), time zone of the User’s device, mobile operator; IP address; information from the User's social media account; </t>
-  </si>
-  <si>
     <t>CRM
 Employees</t>
   </si>
@@ -139,10 +133,93 @@
     <t>Organization of working process</t>
   </si>
   <si>
-    <t>Name; email address; phone number; geodata; entry page on your website; customer’s IP, bowser and operation system; chat assistent’s notes</t>
-  </si>
-  <si>
     <t>Roger Wilco LLC</t>
+  </si>
+  <si>
+    <t>https://chatra.io/help/</t>
+  </si>
+  <si>
+    <t>https://chatra.io/dpa/</t>
+  </si>
+  <si>
+    <t>https://chatra.io/privacy-policy/</t>
+  </si>
+  <si>
+    <t>CRM
+Chat and notifications
+Tasks
+Employees
+Workgroups
+Business Processes
+Creating and managing Chat bots</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>First name; last name; email address; phone number; company name; postal address;profile photo, and credit card number and other billing information; geodata; entry page on your website; customer’s IP, bowser and operation system; chat assistent’s notes; timezone; API and Secret keys; Application log</t>
+  </si>
+  <si>
+    <t>https://cheapmedia.net/about/personal_info/</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=cheapmedia.net#install</t>
+  </si>
+  <si>
+    <t>https://cheapmedia.net/about/personal-data/</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=leadsbridge.leadsbridge#install</t>
+  </si>
+  <si>
+    <t>https://leadsbridge.com/privacy/</t>
+  </si>
+  <si>
+    <t>https://leadsbridge.com/dpa/</t>
+  </si>
+  <si>
+    <t>LeadsBridge Inc.</t>
+  </si>
+  <si>
+    <t>Name, home and work postal address, e-mail address, e-mail addresses of user`s contacts, phone number, gender, occupation, hometown. personal interests, financial and credit card information, personal description and photograph; IP address used to connect user computer to the Internet, user`s login information, browser type and version, time zone setting, browser plug-in types and versions, operating system and platform; full URL clickstream to, through and from Site (including date and time); products user viewed or searched for; page response times, download errors, length of visits to certain pages, page interaction information (such as scrolling, clicks, and mouse-overs), and methods used to browse away from the page; any phone number used to call  customer service number; number of clicks to analyse trends, administer the site, track user’s movement around the site, and gather demographic information; Facebook profile information; pictures and advertising information being published, messages between users, search history, opt ins to email, promotions and online purchases of products and services via services; business partners, sub-contractors in technical, payment and delivery services, advertising networks, analytics providers, search information providers, credit reference agencies</t>
+  </si>
+  <si>
+    <t>CRM
+Employees
+Lists</t>
+  </si>
+  <si>
+    <t>CRM</t>
+  </si>
+  <si>
+    <t>https://www.rdstation.com/en/privacy-policy/</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>name, phone number, email, company name and job title; IP address, geographical location, reference source, browser type, session duration and pages visited is collected; Contact history; city and state from where the access is coming from, professional profile data, including job title, name, company sector, number of employees in company, academic training and years of experience,  marketing preferences, information in CRM, and information about browser; facebook data (information about your ads, how many clicks they received, information about the people that visit the websites that are available on this platform, among others)</t>
+  </si>
+  <si>
+    <t>https://ajuda.rdstation.com.br/hc/en-us?_ga=2.213518100.1241929289.1559666134-1440642124.1559666134</t>
+  </si>
+  <si>
+    <t>https://www.bitrix24.com/apps/?app=sigparser.sigparser#install</t>
+  </si>
+  <si>
+    <t>Dragnet Technologies, LLC</t>
+  </si>
+  <si>
+    <t>https://sigparser.com/privacy/</t>
+  </si>
+  <si>
+    <t>Name; email address; the type of operating system, device model, browser type, system settings, including the information about the language that the User’s system uses, location (country / region), time zone of the User’s device, mobile operator; IP address; information from the User's social media account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full name; email; country; date and place of birth, address, telephone number, profession, education; info about advertising campaign(name of, Period of days, Impressions and etc); billing information; advertising materials </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First name; second name; email; phone number; billing information; traffic data, location data, logs and other communication data and the resources that users access and use on the Website; API key; IP address, operating system and browser type </t>
   </si>
 </sst>
 </file>
@@ -196,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +283,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +334,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -281,6 +364,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -599,17 +685,17 @@
   <dimension ref="A2:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.69921875" style="4"/>
     <col min="2" max="5" width="20.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="47.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="53.796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.296875" style="4" customWidth="1"/>
     <col min="8" max="8" width="22.796875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="18.5" style="4" customWidth="1"/>
     <col min="10" max="10" width="28.19921875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="32.59765625" style="4" customWidth="1"/>
     <col min="12" max="16384" width="10.69921875" style="4"/>
@@ -651,153 +737,233 @@
     <row r="3" spans="1:11" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>27</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="118.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="I5" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="J5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="409.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="206.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
@@ -880,8 +1046,24 @@
     <hyperlink ref="H4" r:id="rId4"/>
     <hyperlink ref="I4" r:id="rId5"/>
     <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="G5" r:id="rId8"/>
+    <hyperlink ref="I5" r:id="rId9"/>
+    <hyperlink ref="J5" r:id="rId10"/>
+    <hyperlink ref="I6" r:id="rId11"/>
+    <hyperlink ref="H6" r:id="rId12" location="install"/>
+    <hyperlink ref="G6" r:id="rId13"/>
+    <hyperlink ref="J6" r:id="rId14"/>
+    <hyperlink ref="I7" r:id="rId15"/>
+    <hyperlink ref="G7" r:id="rId16"/>
+    <hyperlink ref="J7" r:id="rId17"/>
+    <hyperlink ref="J8" r:id="rId18"/>
+    <hyperlink ref="H8" r:id="rId19"/>
+    <hyperlink ref="H9" r:id="rId20" location="install"/>
+    <hyperlink ref="I9" r:id="rId21"/>
+    <hyperlink ref="J9" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>